--- a/.DSA/DS ALGO QUESTIONS MOST IMP.xlsx
+++ b/.DSA/DS ALGO QUESTIONS MOST IMP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds algo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C++ Programs\.DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3946B9AF-CEB8-4F1C-A7D4-9617CD1F651A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AD30BB-2133-47A3-8F6F-3A52147A246E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10360" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="66" workbookViewId="0">
+      <selection activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5"/>
@@ -2899,7 +2899,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
@@ -2921,7 +2921,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">
@@ -2932,7 +2932,7 @@
         <v>101</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="21">
@@ -2965,7 +2965,7 @@
         <v>104</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
@@ -2976,7 +2976,7 @@
         <v>105</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">
@@ -3009,7 +3009,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="21">
@@ -3042,7 +3042,7 @@
         <v>111</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21">
@@ -3064,7 +3064,7 @@
         <v>113</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="21">
@@ -3130,7 +3130,7 @@
         <v>119</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="21">
@@ -3152,7 +3152,7 @@
         <v>121</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="21">
@@ -3163,7 +3163,7 @@
         <v>122</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="21">
@@ -3174,7 +3174,7 @@
         <v>123</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="21">
@@ -4737,7 +4737,7 @@
         <v>266</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="21">
@@ -4748,7 +4748,7 @@
         <v>267</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="21">
